--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFuncResources.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFuncResources.xlsx
@@ -1,84 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>EFT_BOOOST</t>
+  </si>
+  <si>
+    <t>EFT_LVLUP</t>
+  </si>
+  <si>
+    <t>EFT_CREATE_SOLDER</t>
+  </si>
+  <si>
+    <t>EFT_CREATE_SPEEL</t>
+  </si>
+  <si>
+    <t>EFT_RESEARCH</t>
+  </si>
+  <si>
+    <t>EFT_COLLECT_GOLD</t>
+  </si>
+  <si>
+    <t>EFT_COLLECT_STONE</t>
+  </si>
+  <si>
+    <t>EFT_COLLECT_STEEL</t>
+  </si>
+  <si>
+    <t>EFT_COLLECT_DIAMOND</t>
+  </si>
+  <si>
+    <t>EFT_SELL</t>
+  </si>
+  <si>
+    <t>EFT_REPAIR</t>
+  </si>
+  <si>
+    <t>EFT_CANCEL</t>
+  </si>
+  <si>
+    <t>EFT_FINISH</t>
+  </si>
+  <si>
+    <t>EFT_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Atlas_ResID</t>
-  </si>
-  <si>
-    <t>EFT_INFO</t>
-  </si>
-  <si>
-    <t>EFT_BOOOST</t>
-  </si>
-  <si>
-    <t>EFT_LVLUP</t>
-  </si>
-  <si>
-    <t>EFT_CREATE_SOLDER</t>
-  </si>
-  <si>
-    <t>EFT_CREATE_SPEEL</t>
-  </si>
-  <si>
-    <t>EFT_RESEARCH</t>
-  </si>
-  <si>
-    <t>EFT_COLLECT_GOLD</t>
-  </si>
-  <si>
-    <t>EFT_COLLECT_STONE</t>
-  </si>
-  <si>
-    <t>EFT_COLLECT_STEEL</t>
-  </si>
-  <si>
-    <t>EFT_COLLECT_DIAMOND</t>
-  </si>
-  <si>
-    <t>EFT_SELL</t>
-  </si>
-  <si>
-    <t>EFT_REPAIR</t>
-  </si>
-  <si>
-    <t>EFT_CANCEL</t>
-  </si>
-  <si>
-    <t>EFT_FINISH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ssetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -101,23 +115,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -129,14 +128,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -435,6 +439,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -467,15 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -504,87 +508,130 @@
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>15</v>
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFuncResources.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFuncResources.xlsx
@@ -1,32 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Atlas_ResID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>EFT_INFO</t>
+  </si>
+  <si>
+    <t>msg_icon</t>
   </si>
   <si>
     <t>EFT_BOOOST</t>
   </si>
   <si>
+    <t>Ssetting</t>
+  </si>
+  <si>
     <t>EFT_LVLUP</t>
   </si>
   <si>
@@ -61,52 +89,384 @@
   </si>
   <si>
     <t>EFT_FINISH</t>
-  </si>
-  <si>
-    <t>EFT_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atlas_ResID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg_icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ssetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -114,33 +474,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -190,71 +846,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,14 +1128,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -508,130 +1165,175 @@
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFuncResources.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFuncResources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -109,6 +109,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -117,7 +146,114 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,135 +266,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -281,192 +288,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -475,22 +482,92 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +583,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,9 +628,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +656,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -577,165 +674,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1133,7 +1248,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1166,168 +1281,168 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="b">
+      <c r="B3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="b">
+      <c r="B4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="b">
+      <c r="B5" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="b">
+      <c r="B6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:2">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFuncResources.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFuncResources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>Id</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -96,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -117,21 +120,87 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -139,90 +208,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,15 +255,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,12 +291,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,174 +472,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,30 +571,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,32 +586,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,8 +608,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,153 +637,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -829,6 +832,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -839,9 +845,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,59 +1248,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="27.75" customWidth="1"/>
-    <col min="11" max="11" width="23.375" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="14" width="20.25" customWidth="1"/>
-    <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="17" width="21.5" customWidth="1"/>
-    <col min="18" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
-    <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.25" customWidth="1"/>
-    <col min="23" max="23" width="20.25" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="20.25" customWidth="1"/>
-    <col min="26" max="27" width="17.75" customWidth="1"/>
-    <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="b">
@@ -1305,7 +1285,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="8" t="b">
@@ -1313,7 +1293,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="8" t="b">
@@ -1321,41 +1301,41 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1363,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1371,7 +1351,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1379,7 +1359,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1387,7 +1367,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1395,7 +1375,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1403,7 +1383,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1411,7 +1391,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1419,7 +1399,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1427,15 +1407,15 @@
         <v>22</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1443,10 +1423,24 @@
         <v>24</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFuncResources.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFuncResources.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -97,14 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -118,159 +125,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,194 +145,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -574,251 +244,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -863,58 +291,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1246,21 +632,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:2">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1284,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:2">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1292,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:2">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1316,13 +702,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:2">
+    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1330,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1338,7 +724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
@@ -1346,7 +732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
@@ -1354,7 +740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1362,7 +748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
@@ -1370,7 +756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1378,7 +764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -1386,7 +772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
@@ -1394,7 +780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
@@ -1410,7 +796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
@@ -1418,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1441,7 +827,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFuncResources.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFuncResources.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -105,13 +105,17 @@
   </si>
   <si>
     <t>EFT_FINISH</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -122,6 +126,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -292,13 +301,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -633,20 +645,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -654,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -662,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -670,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -678,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -686,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -694,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -702,128 +714,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="B11" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="B14" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="B15" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="B16" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="B18" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="B19" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="B20" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="B21" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
